--- a/1试件设计/试验师傅联系方式.xlsx
+++ b/1试件设计/试验师傅联系方式.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\1试件设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\1毕业课题\#Graduate-thesis\1试件设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -555,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1"/>
     <col min="3" max="3" width="28.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.75" style="1" bestFit="1" customWidth="1"/>
@@ -673,20 +673,20 @@
         <v>13701939935</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C8" s="1">
         <v>13641889054</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1试件设计/试验师傅联系方式.xlsx
+++ b/1试件设计/试验师傅联系方式.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>江苏省盐城市阜宁县阜城镇华山路35号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝冶焊接培训中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海宝山区石太路105号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -688,6 +700,20 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13621675072</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
